--- a/# Sorces Cited.xlsx
+++ b/# Sorces Cited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a23b819fc7901bf5/Documents/School/WSU Data Analytics 115/final project 115/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasha\OneDrive\Documents\School\DATA115\RawR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{41CB168A-A136-4FD9-97BD-8FF2C4EC49CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A289CE59-2642-49F4-8212-9538EBC06503}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF70B912-6377-4C24-8D2B-0EE400450790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{D98EE2C6-BCC2-45B9-997B-E25938250B89}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{D98EE2C6-BCC2-45B9-997B-E25938250B89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
